--- a/biology/Virologie/President's_Emergency_Plan_for_AIDS_Relief/President's_Emergency_Plan_for_AIDS_Relief.xlsx
+++ b/biology/Virologie/President's_Emergency_Plan_for_AIDS_Relief/President's_Emergency_Plan_for_AIDS_Relief.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>President%27s_Emergency_Plan_for_AIDS_Relief</t>
+          <t>President's_Emergency_Plan_for_AIDS_Relief</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le President's Emergency Plan for AIDS Relief (plus connu sous l'abréviation PEPFAR) est un plan d'aide d'urgence à la lutte contre le sida à l'étranger que le président des États-Unis George W. Bush a lancé en 2003.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>President%27s_Emergency_Plan_for_AIDS_Relief</t>
+          <t>President's_Emergency_Plan_for_AIDS_Relief</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les objectifs des cinq premières années de ce Plan d'urgence des États-Unis comprennent une aide au traitement pour deux millions de personnes infectées par le virus de l'immunodéficience humaine, une aide à la prévention de sept millions d'infections nouvelles et une aide aux soins pour 10 millions de personnes infectées ou affectées par le VIH/SIDA[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les objectifs des cinq premières années de ce Plan d'urgence des États-Unis comprennent une aide au traitement pour deux millions de personnes infectées par le virus de l'immunodéficience humaine, une aide à la prévention de sept millions d'infections nouvelles et une aide aux soins pour 10 millions de personnes infectées ou affectées par le VIH/SIDA.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>President%27s_Emergency_Plan_for_AIDS_Relief</t>
+          <t>President's_Emergency_Plan_for_AIDS_Relief</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des administrateurs du PEPFAR et coordonnateur des États-Unis pour la lutte mondiale contre le sida (U.S. Global AIDS Coordinator) ayant rang d'ambassadeur au sein du département d'État depuis la création du poste en mai 2003[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des administrateurs du PEPFAR et coordonnateur des États-Unis pour la lutte mondiale contre le sida (U.S. Global AIDS Coordinator) ayant rang d'ambassadeur au sein du département d'État depuis la création du poste en mai 2003 :
 Randall Tobias : mai 2003 - 11 aout 2006
 Mark Dybul : 11 aout 2006 - 17 septembre 2009
-Eric Goosby : 17 septembre 2009[3]</t>
+Eric Goosby : 17 septembre 2009</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>President%27s_Emergency_Plan_for_AIDS_Relief</t>
+          <t>President's_Emergency_Plan_for_AIDS_Relief</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,59 +591,65 @@
           <t>Actions et résultat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce programme est mis en œuvre entre autres par le département de la Santé et des Services sociaux et le département d'État qui agit avec les autres agences américaines telle l'Agence des États-Unis pour le développement international, les gouvernements concernés, les organisations internationales comme ONUSIDA et le Fonds mondial de lutte contre le sida, la tuberculose et le paludisme ainsi que les organisations locales (1 588 en 2004, 2 217 en 2007).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce programme est mis en œuvre entre autres par le département de la Santé et des Services sociaux et le département d'État qui agit avec les autres agences américaines telle l'Agence des États-Unis pour le développement international, les gouvernements concernés, les organisations internationales comme ONUSIDA et le Fonds mondial de lutte contre le sida, la tuberculose et le paludisme ainsi que les organisations locales (1 588 en 2004, 2 217 en 2007).
 Doté à l'origine d'un budget de 15 milliards de dollars américains répartis sur une période de cinq ans, celui-ci a été finalement de 18,8 milliards de dollars.
-ONUSIDA a estimé qu’en 2002, seuls 50 000 Africains environ avaient pu bénéficier de traitements, sur les quatre millions qui en avaient besoin[4]. Ce plan a permis de soigner en 2007 plus de 1,4 million de personnes dont 62 % de femmes qui reçoivent un traitement antirétroviral[5], le nombre de patients passe à 1,7 million en 2008, 2,5 millions fin 2009[6] et 3,3 millions à la fin de 2010[7].
-En 2004, 30 000 Sud-Africains prenaient des médicaments, ils sont près de 500 000 en 2008[8]. Alors qu'à l'origine, le coût de la thérapie antirétrovirale par patient atteignait entre 9 000 et 12 000 dollars par an, ce coût est passé début 2011 à une moyenne de 435 dollars par an grâce à l'assistance et à la coopération des compagnies pharmaceutiques[9].
-Il donne des programmes de prévention sur la maladie (20 % du budget), à la prise en charge d'orphelins et d'autres enfants en situation vulnérable, à la livraison de fournitures (Les États-Unis ont fourni près de 1,7 milliard de préservatifs entre 2004 et 2007, 2,2 milliards fin 2008, soit plus que tous les autres pays industriels réunis[10] ), ainsi qu'aux frais d'infrastructure hospitalière et a, entre 2004 et 2007, soutenu environ 2,6 millions de stages de formation et de recyclages pour le personnel médical[11] ainsi que dans le cadre du programme SOAR, de son sigle anglais pour Nurses Strengthening our AIDS Response l'envoi de personnel infirmier américain pour aider et former leurs collègues Africains[12].
-Début 2008, George W. Bush a demandé le doublement du budget, soit 30 milliards de dollars pour les cinq prochaines années[13]. Finalement, c'est un montant de 48 milliards de dollars qui sont autorisés en juillet 2008 pour lutter contre le SIDA, la tuberculose et le paludisme pour la période 2009-2013 dont environ 9 milliards seront consacrés à la lutte contre ces deux dernières maladies[14] mais l'arrivée de l'administration Obama confronté à la crise financière de 2007-2010 fait que cet objectif n'est pas tenu[15] et que les dépenses se stabilisent à entre 6 et 7 milliards de dollars par an.
-Budget annuel consacré à la lutte contre le SIDA à l'échelle mondiale par le gouvernement des États-Unis
-Année fiscale 2001 : 840 millions de $
+ONUSIDA a estimé qu’en 2002, seuls 50 000 Africains environ avaient pu bénéficier de traitements, sur les quatre millions qui en avaient besoin. Ce plan a permis de soigner en 2007 plus de 1,4 million de personnes dont 62 % de femmes qui reçoivent un traitement antirétroviral, le nombre de patients passe à 1,7 million en 2008, 2,5 millions fin 2009 et 3,3 millions à la fin de 2010.
+En 2004, 30 000 Sud-Africains prenaient des médicaments, ils sont près de 500 000 en 2008. Alors qu'à l'origine, le coût de la thérapie antirétrovirale par patient atteignait entre 9 000 et 12 000 dollars par an, ce coût est passé début 2011 à une moyenne de 435 dollars par an grâce à l'assistance et à la coopération des compagnies pharmaceutiques.
+Il donne des programmes de prévention sur la maladie (20 % du budget), à la prise en charge d'orphelins et d'autres enfants en situation vulnérable, à la livraison de fournitures (Les États-Unis ont fourni près de 1,7 milliard de préservatifs entre 2004 et 2007, 2,2 milliards fin 2008, soit plus que tous les autres pays industriels réunis ), ainsi qu'aux frais d'infrastructure hospitalière et a, entre 2004 et 2007, soutenu environ 2,6 millions de stages de formation et de recyclages pour le personnel médical ainsi que dans le cadre du programme SOAR, de son sigle anglais pour Nurses Strengthening our AIDS Response l'envoi de personnel infirmier américain pour aider et former leurs collègues Africains.
+Début 2008, George W. Bush a demandé le doublement du budget, soit 30 milliards de dollars pour les cinq prochaines années. Finalement, c'est un montant de 48 milliards de dollars qui sont autorisés en juillet 2008 pour lutter contre le SIDA, la tuberculose et le paludisme pour la période 2009-2013 dont environ 9 milliards seront consacrés à la lutte contre ces deux dernières maladies mais l'arrivée de l'administration Obama confronté à la crise financière de 2007-2010 fait que cet objectif n'est pas tenu et que les dépenses se stabilisent à entre 6 et 7 milliards de dollars par an.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>President's_Emergency_Plan_for_AIDS_Relief</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/President%27s_Emergency_Plan_for_AIDS_Relief</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Actions et résultat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Budget annuel consacré à la lutte contre le SIDA à l'échelle mondiale par le gouvernement des États-Unis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Année fiscale 2001 : 840 millions de $
 Année fiscale 2002 : ~ 1,2 milliard de $
 Année fiscale 2003 : ~ 1,5 milliard de $
 Année fiscale 2004 : 2,277 milliards de $
 Année fiscale 2005 : 2,704 milliards de $
 Année fiscale 2006 : 3,290 milliards de $
 Année fiscale 2007 : 4,518 milliards de $
-Année fiscale 2008 : 6,031 milliards de $[16]
+Année fiscale 2008 : 6,031 milliards de $
 Année fiscale 2009 : 6,680 milliards de $
-Année fiscale 2010 : 6,867 milliards de $[7]
+Année fiscale 2010 : 6,867 milliards de $
 Année fiscale 2011 : 6,725 milliards de $
 Année fiscale 2012 : 6,639 milliards de $
-Année fiscale 2013 : 6,419 milliards de $ (demande de budget)[17]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>President%27s_Emergency_Plan_for_AIDS_Relief</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Virologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/President%27s_Emergency_Plan_for_AIDS_Relief</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Pays bénéficiaires</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les quinze pays bénéficiaires en 2008 sont l'Afrique du Sud, le Botswana, la Côte d'Ivoire, l'Éthiopie, la Guyana, Haïti, le Kenya, le Mozambique, la Namibie, le Nigéria, l'Ouganda, le Rwanda, la Tanzanie, le Vietnam et la Zambie[18]. 
-</t>
+Année fiscale 2013 : 6,419 milliards de $ (demande de budget)</t>
         </is>
       </c>
     </row>
@@ -637,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>President%27s_Emergency_Plan_for_AIDS_Relief</t>
+          <t>President's_Emergency_Plan_for_AIDS_Relief</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,12 +674,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Traitements</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mars 2012, 4,5 millions de personnes sont traités par le PEPFAR, l'objectif de 6 millions à la fin de 2013[19].
+          <t>Pays bénéficiaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quinze pays bénéficiaires en 2008 sont l'Afrique du Sud, le Botswana, la Côte d'Ivoire, l'Éthiopie, la Guyana, Haïti, le Kenya, le Mozambique, la Namibie, le Nigéria, l'Ouganda, le Rwanda, la Tanzanie, le Vietnam et la Zambie. 
 </t>
         </is>
       </c>
@@ -668,7 +692,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>President%27s_Emergency_Plan_for_AIDS_Relief</t>
+          <t>President's_Emergency_Plan_for_AIDS_Relief</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,13 +707,48 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2012, 4,5 millions de personnes sont traités par le PEPFAR, l'objectif de 6 millions à la fin de 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>President's_Emergency_Plan_for_AIDS_Relief</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/President%27s_Emergency_Plan_for_AIDS_Relief</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains ont critiqué le PEPFAR car le volet de prévention s'appuie en 2006 sur la stratégie ABC (Abstinence, soyez fidèle, utilisez un préservatif) - un tiers des fonds de ce volet va alors à des programmes de promotion de l'abstinence sexuelle avant le mariage -[20].
-Selon le Center for global development, l'afflux d'argent a également un effet pernicieux car le PEPFAR et autres programmes internationaux ont également financé le recrutement de très nombreux travailleurs sanitaires des organisations non gouvernementales, qui gagnent souvent bien mieux leur vie que leurs collègues du secteur public et ils sont donc en compétition avec les systèmes de santé nationaux. Un employé de bureau travaillant pour un programme financé par le PEPFAR en Zambie, par exemple, a un salaire deux fois plus élevé qu’une infirmière diplômée dans le secteur public zambien[21].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains ont critiqué le PEPFAR car le volet de prévention s'appuie en 2006 sur la stratégie ABC (Abstinence, soyez fidèle, utilisez un préservatif) - un tiers des fonds de ce volet va alors à des programmes de promotion de l'abstinence sexuelle avant le mariage -.
+Selon le Center for global development, l'afflux d'argent a également un effet pernicieux car le PEPFAR et autres programmes internationaux ont également financé le recrutement de très nombreux travailleurs sanitaires des organisations non gouvernementales, qui gagnent souvent bien mieux leur vie que leurs collègues du secteur public et ils sont donc en compétition avec les systèmes de santé nationaux. Un employé de bureau travaillant pour un programme financé par le PEPFAR en Zambie, par exemple, a un salaire deux fois plus élevé qu’une infirmière diplômée dans le secteur public zambien.
 </t>
         </is>
       </c>
